--- a/Revisi Anggaran/17 Maret 2023/Book1.xlsx
+++ b/Revisi Anggaran/17 Maret 2023/Book1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA WINDA\SARPRAS 2023\SERDIK SARPRAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BACK\PUSDIK\2023\Github\TA.2023\Revisi Anggaran\17 Maret 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17098CFF-FE86-4F43-AC02-A8DD3A0EE1A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="usulan revisi 1 SARPRAS" sheetId="1" r:id="rId1"/>
@@ -18,10 +19,21 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'usulan revisi 1 SARPRAS'!$A$1:$M$65</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'usulan revisi 1 SARPRAS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -225,12 +237,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -601,81 +613,21 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -738,17 +690,17 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="6" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="6" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -757,7 +709,7 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -766,7 +718,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -778,7 +730,7 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -793,7 +745,7 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="10" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -802,10 +754,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -820,7 +772,7 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -829,7 +781,7 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -842,13 +794,13 @@
     <xf numFmtId="0" fontId="7" fillId="10" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -869,27 +821,27 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -898,10 +850,10 @@
     <xf numFmtId="0" fontId="11" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="10" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -913,37 +865,97 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="10" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Comma 2" xfId="3"/>
+    <cellStyle name="Comma 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1220,1994 +1232,1984 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:P64"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="N38" sqref="N38"/>
+      <selection activeCell="M50" sqref="M50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="50.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="6.5" style="114" customWidth="1"/>
-    <col min="4" max="4" width="7.25" style="114" customWidth="1"/>
-    <col min="5" max="5" width="12" style="114" customWidth="1"/>
-    <col min="6" max="6" width="13.375" style="114" customWidth="1"/>
-    <col min="7" max="7" width="1" style="115" customWidth="1"/>
-    <col min="8" max="8" width="13" style="114" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="49.125" style="114" customWidth="1"/>
-    <col min="10" max="10" width="5" style="114" customWidth="1"/>
-    <col min="11" max="11" width="6.125" style="114" customWidth="1"/>
-    <col min="12" max="12" width="11.125" style="114" customWidth="1"/>
-    <col min="13" max="13" width="14" style="114" customWidth="1"/>
-    <col min="14" max="14" width="20.375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="14.375" style="2" customWidth="1"/>
-    <col min="16" max="16" width="10.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.375" style="2" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="12.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="50.69921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5" style="94" customWidth="1"/>
+    <col min="4" max="4" width="7.19921875" style="94" customWidth="1"/>
+    <col min="5" max="5" width="12" style="94" customWidth="1"/>
+    <col min="6" max="6" width="13.3984375" style="94" customWidth="1"/>
+    <col min="7" max="7" width="1" style="95" customWidth="1"/>
+    <col min="8" max="8" width="13" style="94" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="49.09765625" style="94" customWidth="1"/>
+    <col min="10" max="10" width="5" style="94" customWidth="1"/>
+    <col min="11" max="11" width="6.09765625" style="94" customWidth="1"/>
+    <col min="12" max="12" width="11.09765625" style="94" customWidth="1"/>
+    <col min="13" max="13" width="14" style="94" customWidth="1"/>
+    <col min="14" max="14" width="20.3984375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="14.3984375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.3984375" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="22.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="1:15" ht="22.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:15" ht="21" x14ac:dyDescent="0.5">
+      <c r="A1" s="110" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+    </row>
+    <row r="2" spans="1:15" ht="21" x14ac:dyDescent="0.5">
+      <c r="A2" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-    </row>
-    <row r="4" spans="1:15" ht="10.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+    </row>
+    <row r="3" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="111"/>
+      <c r="B3" s="111"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="111"/>
+    </row>
+    <row r="4" spans="1:15" ht="10.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="4" t="s">
+      <c r="B4" s="113"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="113"/>
+      <c r="E4" s="113"/>
+      <c r="F4" s="113"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="7"/>
-    </row>
-    <row r="5" spans="1:15" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="10"/>
-    </row>
-    <row r="6" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="I4" s="113"/>
+      <c r="J4" s="113"/>
+      <c r="K4" s="113"/>
+      <c r="L4" s="113"/>
+      <c r="M4" s="116"/>
+    </row>
+    <row r="5" spans="1:15" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="114"/>
+      <c r="B5" s="115"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="114"/>
+      <c r="I5" s="115"/>
+      <c r="J5" s="115"/>
+      <c r="K5" s="115"/>
+      <c r="L5" s="115"/>
+      <c r="M5" s="117"/>
+    </row>
+    <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="11" t="s">
+      <c r="G6" s="3"/>
+      <c r="H6" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="J6" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="14" t="s">
+      <c r="K6" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="14" t="s">
+      <c r="L6" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="17" t="s">
+      <c r="M6" s="98" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="17"/>
-    </row>
-    <row r="8" spans="1:15" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="24"/>
-    </row>
-    <row r="9" spans="1:15" s="30" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
+    <row r="7" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="102"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="108"/>
+      <c r="L7" s="108"/>
+      <c r="M7" s="98"/>
+    </row>
+    <row r="8" spans="1:15" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="103"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="107"/>
+      <c r="D8" s="109"/>
+      <c r="E8" s="109"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="107"/>
+      <c r="K8" s="109"/>
+      <c r="L8" s="109"/>
+      <c r="M8" s="99"/>
+    </row>
+    <row r="9" spans="1:15" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="27" t="s">
+      <c r="F9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="28"/>
-      <c r="H9" s="25" t="s">
+      <c r="G9" s="8"/>
+      <c r="H9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="26" t="s">
+      <c r="I9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="26" t="s">
+      <c r="J9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K9" s="26" t="s">
+      <c r="K9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L9" s="26" t="s">
+      <c r="L9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="M9" s="29" t="s">
+      <c r="M9" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="31" t="s">
+    <row r="10" spans="1:15" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="31" t="s">
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="32" t="s">
+      <c r="I10" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
-    </row>
-    <row r="11" spans="1:15" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="34" t="s">
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+    </row>
+    <row r="11" spans="1:15" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="34" t="s">
+      <c r="C11" s="16"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="I11" s="35" t="s">
+      <c r="I11" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="36"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
-    </row>
-    <row r="12" spans="1:15" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="38">
+      <c r="J11" s="16"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+    </row>
+    <row r="12" spans="1:15" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="18">
         <v>2378</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="40"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="38">
+      <c r="C12" s="20"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="18">
         <v>2378</v>
       </c>
-      <c r="I12" s="39" t="s">
+      <c r="I12" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="40"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
-    </row>
-    <row r="13" spans="1:15" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="42" t="s">
+      <c r="J12" s="20"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+    </row>
+    <row r="13" spans="1:15" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="44"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="46">
+      <c r="C13" s="24"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="26">
         <f>F14+F37</f>
         <v>258356000</v>
       </c>
-      <c r="G13" s="28"/>
-      <c r="H13" s="42" t="s">
+      <c r="G13" s="8"/>
+      <c r="H13" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="43" t="s">
+      <c r="I13" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="J13" s="44"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="44"/>
-      <c r="M13" s="46">
+      <c r="J13" s="24"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="26">
         <f>M14+M37</f>
         <v>478171000</v>
       </c>
-      <c r="N13" s="47"/>
-    </row>
-    <row r="14" spans="1:15" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="48" t="s">
+      <c r="N13" s="27"/>
+    </row>
+    <row r="14" spans="1:15" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="50">
-        <v>0</v>
-      </c>
-      <c r="D14" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="50">
-        <v>0</v>
-      </c>
-      <c r="F14" s="50">
+      <c r="C14" s="30">
+        <v>0</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="30">
+        <v>0</v>
+      </c>
+      <c r="F14" s="30">
         <f>F15+F27</f>
         <v>118802000</v>
       </c>
-      <c r="G14" s="28"/>
-      <c r="H14" s="48" t="s">
+      <c r="G14" s="8"/>
+      <c r="H14" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="I14" s="49" t="s">
+      <c r="I14" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="J14" s="50">
-        <v>0</v>
-      </c>
-      <c r="K14" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="L14" s="50">
-        <v>0</v>
-      </c>
-      <c r="M14" s="50">
+      <c r="J14" s="30">
+        <v>0</v>
+      </c>
+      <c r="K14" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14" s="30">
+        <v>0</v>
+      </c>
+      <c r="M14" s="30">
         <f>M15+M27</f>
         <v>187302000</v>
       </c>
-      <c r="N14" s="47"/>
-      <c r="O14" s="47"/>
-    </row>
-    <row r="15" spans="1:15" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="51" t="s">
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+    </row>
+    <row r="15" spans="1:15" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="52" t="s">
+      <c r="B15" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="53">
-        <v>0</v>
-      </c>
-      <c r="D15" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="53">
-        <v>0</v>
-      </c>
-      <c r="F15" s="53">
+      <c r="C15" s="33">
+        <v>0</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="33">
+        <v>0</v>
+      </c>
+      <c r="F15" s="33">
         <f>F16+F25</f>
         <v>35050000</v>
       </c>
-      <c r="G15" s="28"/>
-      <c r="H15" s="51" t="s">
+      <c r="G15" s="8"/>
+      <c r="H15" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="I15" s="52" t="s">
+      <c r="I15" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="J15" s="53">
-        <v>0</v>
-      </c>
-      <c r="K15" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="L15" s="53">
-        <v>0</v>
-      </c>
-      <c r="M15" s="53">
+      <c r="J15" s="33">
+        <v>0</v>
+      </c>
+      <c r="K15" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="L15" s="33">
+        <v>0</v>
+      </c>
+      <c r="M15" s="33">
         <f>M16+M25+M21+M23</f>
         <v>80050000</v>
       </c>
-      <c r="N15" s="47"/>
-      <c r="O15" s="47"/>
-    </row>
-    <row r="16" spans="1:15" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="54" t="s">
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+    </row>
+    <row r="16" spans="1:15" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="55" t="s">
+      <c r="B16" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="56">
-        <v>0</v>
-      </c>
-      <c r="D16" s="57" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="56">
-        <v>0</v>
-      </c>
-      <c r="F16" s="56">
+      <c r="C16" s="36">
+        <v>0</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="36">
+        <v>0</v>
+      </c>
+      <c r="F16" s="36">
         <f>SUM(F17:F20)</f>
         <v>11050000</v>
       </c>
-      <c r="G16" s="28"/>
-      <c r="H16" s="57">
+      <c r="G16" s="8"/>
+      <c r="H16" s="37">
         <v>521211</v>
       </c>
-      <c r="I16" s="55" t="s">
+      <c r="I16" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="J16" s="56">
-        <v>0</v>
-      </c>
-      <c r="K16" s="57" t="s">
-        <v>25</v>
-      </c>
-      <c r="L16" s="56">
-        <v>0</v>
-      </c>
-      <c r="M16" s="56">
+      <c r="J16" s="36">
+        <v>0</v>
+      </c>
+      <c r="K16" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="L16" s="36">
+        <v>0</v>
+      </c>
+      <c r="M16" s="36">
         <f>SUM(M17:M20)</f>
         <v>21050000</v>
       </c>
     </row>
-    <row r="17" spans="1:16" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="58" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="59" t="s">
+    <row r="17" spans="1:16" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="60">
+      <c r="C17" s="40">
         <v>100</v>
       </c>
-      <c r="D17" s="61" t="s">
+      <c r="D17" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="60">
+      <c r="E17" s="40">
         <v>75000</v>
       </c>
-      <c r="F17" s="60">
+      <c r="F17" s="40">
         <f t="shared" ref="F17:F20" si="0">ROUNDDOWN(C17*E17,-3)</f>
         <v>7500000</v>
       </c>
-      <c r="G17" s="62"/>
-      <c r="H17" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="I17" s="64" t="s">
+      <c r="G17" s="42"/>
+      <c r="H17" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="J17" s="65">
+      <c r="J17" s="45">
         <v>200</v>
       </c>
-      <c r="K17" s="66" t="s">
+      <c r="K17" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="L17" s="65">
+      <c r="L17" s="45">
         <v>75000</v>
       </c>
-      <c r="M17" s="65">
+      <c r="M17" s="45">
         <f t="shared" ref="M17:M20" si="1">ROUNDDOWN(J17*L17,-3)</f>
         <v>15000000</v>
       </c>
     </row>
-    <row r="18" spans="1:16" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="58" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="67" t="s">
+    <row r="18" spans="1:16" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="68">
+      <c r="C18" s="48">
         <v>1</v>
       </c>
-      <c r="D18" s="63" t="s">
+      <c r="D18" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="68">
+      <c r="E18" s="48">
         <v>1500000</v>
       </c>
-      <c r="F18" s="68">
+      <c r="F18" s="48">
         <f t="shared" si="0"/>
         <v>1500000</v>
       </c>
-      <c r="G18" s="28"/>
-      <c r="H18" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="I18" s="67" t="s">
+      <c r="G18" s="8"/>
+      <c r="H18" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="J18" s="69">
+      <c r="J18" s="49">
         <v>2</v>
       </c>
-      <c r="K18" s="70" t="s">
+      <c r="K18" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="L18" s="69">
+      <c r="L18" s="49">
         <v>1500000</v>
       </c>
-      <c r="M18" s="69">
+      <c r="M18" s="49">
         <f t="shared" si="1"/>
         <v>3000000</v>
       </c>
     </row>
-    <row r="19" spans="1:16" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="58" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="67" t="s">
+    <row r="19" spans="1:16" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="68">
+      <c r="C19" s="48">
         <v>1</v>
       </c>
-      <c r="D19" s="63" t="s">
+      <c r="D19" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="E19" s="68">
+      <c r="E19" s="48">
         <v>1000000</v>
       </c>
-      <c r="F19" s="68">
+      <c r="F19" s="48">
         <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
-      <c r="G19" s="28"/>
-      <c r="H19" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="I19" s="67" t="s">
+      <c r="G19" s="8"/>
+      <c r="H19" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="I19" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="J19" s="69">
+      <c r="J19" s="49">
         <v>2</v>
       </c>
-      <c r="K19" s="70" t="s">
+      <c r="K19" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="L19" s="69">
+      <c r="L19" s="49">
         <v>1000000</v>
       </c>
-      <c r="M19" s="69">
+      <c r="M19" s="49">
         <f t="shared" si="1"/>
         <v>2000000</v>
       </c>
     </row>
-    <row r="20" spans="1:16" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="71" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="72" t="s">
+    <row r="20" spans="1:16" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="60">
+      <c r="C20" s="40">
         <v>3</v>
       </c>
-      <c r="D20" s="63" t="s">
+      <c r="D20" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="60">
+      <c r="E20" s="40">
         <v>350000</v>
       </c>
-      <c r="F20" s="60">
+      <c r="F20" s="40">
         <f t="shared" si="0"/>
         <v>1050000</v>
       </c>
-      <c r="G20" s="28"/>
-      <c r="H20" s="61" t="s">
-        <v>25</v>
-      </c>
-      <c r="I20" s="72" t="s">
+      <c r="G20" s="8"/>
+      <c r="H20" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="J20" s="60">
+      <c r="J20" s="40">
         <v>3</v>
       </c>
-      <c r="K20" s="63" t="s">
+      <c r="K20" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="L20" s="60">
+      <c r="L20" s="40">
         <v>350000</v>
       </c>
-      <c r="M20" s="60">
+      <c r="M20" s="40">
         <f t="shared" si="1"/>
         <v>1050000</v>
       </c>
     </row>
-    <row r="21" spans="1:16" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="71"/>
-      <c r="B21" s="72"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="57">
+    <row r="21" spans="1:16" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="51"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="37">
         <v>521219</v>
       </c>
-      <c r="I21" s="73" t="s">
+      <c r="I21" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="J21" s="74">
-        <v>0</v>
-      </c>
-      <c r="K21" s="75" t="s">
-        <v>25</v>
-      </c>
-      <c r="L21" s="74">
-        <v>0</v>
-      </c>
-      <c r="M21" s="74">
+      <c r="J21" s="54">
+        <v>0</v>
+      </c>
+      <c r="K21" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="L21" s="54">
+        <v>0</v>
+      </c>
+      <c r="M21" s="54">
         <f t="shared" ref="M21:M23" si="2">M22</f>
         <v>25000000</v>
       </c>
     </row>
-    <row r="22" spans="1:16" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="71"/>
-      <c r="B22" s="72"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="61" t="s">
-        <v>25</v>
-      </c>
-      <c r="I22" s="76" t="s">
+    <row r="22" spans="1:16" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="51"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="I22" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="J22" s="65">
+      <c r="J22" s="45">
         <v>1</v>
       </c>
-      <c r="K22" s="70" t="s">
+      <c r="K22" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="L22" s="65">
+      <c r="L22" s="45">
         <v>25000000</v>
       </c>
-      <c r="M22" s="65">
+      <c r="M22" s="45">
         <f>ROUNDDOWN(J22*L22,-3)</f>
         <v>25000000</v>
       </c>
     </row>
-    <row r="23" spans="1:16" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="71"/>
-      <c r="B23" s="72"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="63"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="57">
+    <row r="23" spans="1:16" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="51"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="37">
         <v>522151</v>
       </c>
-      <c r="I23" s="73" t="s">
+      <c r="I23" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="J23" s="74">
-        <v>0</v>
-      </c>
-      <c r="K23" s="75" t="s">
-        <v>25</v>
-      </c>
-      <c r="L23" s="74">
-        <v>0</v>
-      </c>
-      <c r="M23" s="74">
+      <c r="J23" s="54">
+        <v>0</v>
+      </c>
+      <c r="K23" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="L23" s="54">
+        <v>0</v>
+      </c>
+      <c r="M23" s="54">
         <f t="shared" si="2"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="24" spans="1:16" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="71"/>
-      <c r="B24" s="72"/>
-      <c r="C24" s="60"/>
-      <c r="D24" s="63"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="60"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="57" t="s">
-        <v>25</v>
-      </c>
-      <c r="I24" s="64" t="s">
+    <row r="24" spans="1:16" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="51"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="I24" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="J24" s="65">
+      <c r="J24" s="45">
         <v>10</v>
       </c>
-      <c r="K24" s="66" t="s">
+      <c r="K24" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="L24" s="65">
+      <c r="L24" s="45">
         <v>1000000</v>
       </c>
-      <c r="M24" s="65">
+      <c r="M24" s="45">
         <f>ROUNDDOWN(J24*L24,-3)</f>
         <v>10000000</v>
       </c>
     </row>
-    <row r="25" spans="1:16" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="54" t="s">
+    <row r="25" spans="1:16" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="55" t="s">
+      <c r="B25" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="56">
-        <v>0</v>
-      </c>
-      <c r="D25" s="57" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25" s="56">
-        <v>0</v>
-      </c>
-      <c r="F25" s="56">
+      <c r="C25" s="36">
+        <v>0</v>
+      </c>
+      <c r="D25" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="36">
+        <v>0</v>
+      </c>
+      <c r="F25" s="36">
         <f>F26</f>
         <v>24000000</v>
       </c>
-      <c r="G25" s="28"/>
-      <c r="H25" s="57">
+      <c r="G25" s="8"/>
+      <c r="H25" s="37">
         <v>524111</v>
       </c>
-      <c r="I25" s="55" t="s">
+      <c r="I25" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="J25" s="56">
-        <v>0</v>
-      </c>
-      <c r="K25" s="57" t="s">
-        <v>25</v>
-      </c>
-      <c r="L25" s="56">
-        <v>0</v>
-      </c>
-      <c r="M25" s="56">
+      <c r="J25" s="36">
+        <v>0</v>
+      </c>
+      <c r="K25" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="L25" s="36">
+        <v>0</v>
+      </c>
+      <c r="M25" s="36">
         <f>M26</f>
         <v>24000000</v>
       </c>
     </row>
-    <row r="26" spans="1:16" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="58" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="72" t="s">
+    <row r="26" spans="1:16" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="60">
+      <c r="C26" s="40">
         <v>6</v>
       </c>
-      <c r="D26" s="61" t="s">
+      <c r="D26" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="E26" s="60">
+      <c r="E26" s="40">
         <v>4000000</v>
       </c>
-      <c r="F26" s="60">
+      <c r="F26" s="40">
         <f>ROUNDDOWN(C26*E26,-3)</f>
         <v>24000000</v>
       </c>
-      <c r="G26" s="28"/>
-      <c r="H26" s="58" t="s">
-        <v>25</v>
-      </c>
-      <c r="I26" s="72" t="s">
+      <c r="G26" s="8"/>
+      <c r="H26" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="I26" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="J26" s="60">
+      <c r="J26" s="40">
         <v>6</v>
       </c>
-      <c r="K26" s="61" t="s">
+      <c r="K26" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="L26" s="60">
+      <c r="L26" s="40">
         <v>4000000</v>
       </c>
-      <c r="M26" s="60">
+      <c r="M26" s="40">
         <f>ROUNDDOWN(J26*L26,-3)</f>
         <v>24000000</v>
       </c>
-      <c r="N26" s="47"/>
-      <c r="P26" s="77"/>
-    </row>
-    <row r="27" spans="1:16" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="51" t="s">
+      <c r="N26" s="27"/>
+      <c r="P26" s="57"/>
+    </row>
+    <row r="27" spans="1:16" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="52" t="s">
+      <c r="B27" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="53">
-        <v>0</v>
-      </c>
-      <c r="D27" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="E27" s="53">
-        <v>0</v>
-      </c>
-      <c r="F27" s="53">
+      <c r="C27" s="33">
+        <v>0</v>
+      </c>
+      <c r="D27" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="33">
+        <v>0</v>
+      </c>
+      <c r="F27" s="33">
         <f>F28+F33+F35</f>
         <v>83752000</v>
       </c>
-      <c r="G27" s="78"/>
-      <c r="H27" s="51" t="s">
+      <c r="G27" s="58"/>
+      <c r="H27" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="I27" s="52" t="s">
+      <c r="I27" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="J27" s="53">
-        <v>0</v>
-      </c>
-      <c r="K27" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="L27" s="53">
-        <v>0</v>
-      </c>
-      <c r="M27" s="53">
+      <c r="J27" s="33">
+        <v>0</v>
+      </c>
+      <c r="K27" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="L27" s="33">
+        <v>0</v>
+      </c>
+      <c r="M27" s="33">
         <f>M28+M33+M35</f>
         <v>107252000</v>
       </c>
-      <c r="N27" s="47"/>
-      <c r="P27" s="77"/>
-    </row>
-    <row r="28" spans="1:16" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="54" t="s">
+      <c r="N27" s="27"/>
+      <c r="P27" s="57"/>
+    </row>
+    <row r="28" spans="1:16" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="55" t="s">
+      <c r="B28" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="56">
-        <v>0</v>
-      </c>
-      <c r="D28" s="57" t="s">
-        <v>25</v>
-      </c>
-      <c r="E28" s="56">
-        <v>0</v>
-      </c>
-      <c r="F28" s="56">
+      <c r="C28" s="36">
+        <v>0</v>
+      </c>
+      <c r="D28" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="36">
+        <v>0</v>
+      </c>
+      <c r="F28" s="36">
         <f>SUM(F29:F32)</f>
         <v>13500000</v>
       </c>
-      <c r="G28" s="78"/>
-      <c r="H28" s="54" t="s">
+      <c r="G28" s="58"/>
+      <c r="H28" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="I28" s="55" t="s">
+      <c r="I28" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="J28" s="56">
-        <v>0</v>
-      </c>
-      <c r="K28" s="57" t="s">
-        <v>25</v>
-      </c>
-      <c r="L28" s="56">
-        <v>0</v>
-      </c>
-      <c r="M28" s="56">
+      <c r="J28" s="36">
+        <v>0</v>
+      </c>
+      <c r="K28" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="L28" s="36">
+        <v>0</v>
+      </c>
+      <c r="M28" s="36">
         <f>SUM(M29:M32)</f>
         <v>21000000</v>
       </c>
-      <c r="N28" s="47"/>
-      <c r="P28" s="77"/>
-    </row>
-    <row r="29" spans="1:16" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="58" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" s="59" t="s">
+      <c r="N28" s="27"/>
+      <c r="P28" s="57"/>
+    </row>
+    <row r="29" spans="1:16" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="60">
+      <c r="C29" s="40">
         <v>100</v>
       </c>
-      <c r="D29" s="61" t="s">
+      <c r="D29" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="E29" s="60">
+      <c r="E29" s="40">
         <v>75000</v>
       </c>
-      <c r="F29" s="60">
+      <c r="F29" s="40">
         <f t="shared" ref="F29:F32" si="3">ROUNDDOWN(C29*E29,-3)</f>
         <v>7500000</v>
       </c>
-      <c r="G29" s="78"/>
-      <c r="H29" s="58" t="s">
-        <v>25</v>
-      </c>
-      <c r="I29" s="64" t="s">
+      <c r="G29" s="58"/>
+      <c r="H29" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="I29" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="J29" s="65">
+      <c r="J29" s="45">
         <v>200</v>
       </c>
-      <c r="K29" s="66" t="s">
+      <c r="K29" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="L29" s="65">
+      <c r="L29" s="45">
         <v>75000</v>
       </c>
-      <c r="M29" s="65">
+      <c r="M29" s="45">
         <f t="shared" ref="M29:M32" si="4">ROUNDDOWN(J29*L29,-3)</f>
         <v>15000000</v>
       </c>
-      <c r="N29" s="47"/>
-      <c r="P29" s="77"/>
-    </row>
-    <row r="30" spans="1:16" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="58" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" s="67" t="s">
+      <c r="N29" s="27"/>
+      <c r="P29" s="57"/>
+    </row>
+    <row r="30" spans="1:16" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="68">
+      <c r="C30" s="48">
         <v>2</v>
       </c>
-      <c r="D30" s="63" t="s">
+      <c r="D30" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="E30" s="68">
+      <c r="E30" s="48">
         <v>1500000</v>
       </c>
-      <c r="F30" s="68">
+      <c r="F30" s="48">
         <f t="shared" si="3"/>
         <v>3000000</v>
       </c>
-      <c r="G30" s="78"/>
-      <c r="H30" s="58" t="s">
-        <v>25</v>
-      </c>
-      <c r="I30" s="67" t="s">
+      <c r="G30" s="58"/>
+      <c r="H30" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="I30" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="J30" s="68">
+      <c r="J30" s="48">
         <v>2</v>
       </c>
-      <c r="K30" s="63" t="s">
+      <c r="K30" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="L30" s="68">
+      <c r="L30" s="48">
         <v>1500000</v>
       </c>
-      <c r="M30" s="68">
+      <c r="M30" s="48">
         <f t="shared" si="4"/>
         <v>3000000</v>
       </c>
-      <c r="N30" s="47"/>
-      <c r="P30" s="77"/>
-    </row>
-    <row r="31" spans="1:16" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="58" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" s="67" t="s">
+      <c r="N30" s="27"/>
+      <c r="P30" s="57"/>
+    </row>
+    <row r="31" spans="1:16" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="68">
+      <c r="C31" s="48">
         <v>2</v>
       </c>
-      <c r="D31" s="63" t="s">
+      <c r="D31" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="E31" s="68">
+      <c r="E31" s="48">
         <v>1000000</v>
       </c>
-      <c r="F31" s="68">
+      <c r="F31" s="48">
         <f t="shared" si="3"/>
         <v>2000000</v>
       </c>
-      <c r="G31" s="78"/>
-      <c r="H31" s="58" t="s">
-        <v>25</v>
-      </c>
-      <c r="I31" s="67" t="s">
+      <c r="G31" s="58"/>
+      <c r="H31" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="I31" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="J31" s="68">
+      <c r="J31" s="48">
         <v>2</v>
       </c>
-      <c r="K31" s="63" t="s">
+      <c r="K31" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="L31" s="68">
+      <c r="L31" s="48">
         <v>1000000</v>
       </c>
-      <c r="M31" s="68">
+      <c r="M31" s="48">
         <f t="shared" si="4"/>
         <v>2000000</v>
       </c>
-      <c r="N31" s="47"/>
-      <c r="P31" s="77"/>
-    </row>
-    <row r="32" spans="1:16" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="71" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" s="72" t="s">
+      <c r="N31" s="27"/>
+      <c r="P31" s="57"/>
+    </row>
+    <row r="32" spans="1:16" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="60">
+      <c r="C32" s="40">
         <v>4</v>
       </c>
-      <c r="D32" s="63" t="s">
+      <c r="D32" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="E32" s="60">
+      <c r="E32" s="40">
         <v>250000</v>
       </c>
-      <c r="F32" s="60">
+      <c r="F32" s="40">
         <f t="shared" si="3"/>
         <v>1000000</v>
       </c>
-      <c r="G32" s="78"/>
-      <c r="H32" s="71" t="s">
-        <v>25</v>
-      </c>
-      <c r="I32" s="72" t="s">
+      <c r="G32" s="58"/>
+      <c r="H32" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="I32" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="J32" s="60">
+      <c r="J32" s="40">
         <v>4</v>
       </c>
-      <c r="K32" s="63" t="s">
+      <c r="K32" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="L32" s="60">
+      <c r="L32" s="40">
         <v>250000</v>
       </c>
-      <c r="M32" s="60">
+      <c r="M32" s="40">
         <f t="shared" si="4"/>
         <v>1000000</v>
       </c>
-      <c r="N32" s="47"/>
-      <c r="P32" s="77"/>
-    </row>
-    <row r="33" spans="1:16" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="79" t="s">
+      <c r="N32" s="27"/>
+      <c r="P32" s="57"/>
+    </row>
+    <row r="33" spans="1:16" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="73" t="s">
+      <c r="B33" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="74">
-        <v>0</v>
-      </c>
-      <c r="D33" s="75" t="s">
-        <v>25</v>
-      </c>
-      <c r="E33" s="74">
-        <v>0</v>
-      </c>
-      <c r="F33" s="74">
+      <c r="C33" s="54">
+        <v>0</v>
+      </c>
+      <c r="D33" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" s="54">
+        <v>0</v>
+      </c>
+      <c r="F33" s="54">
         <f t="shared" ref="F33" si="5">F34</f>
         <v>4000000</v>
       </c>
-      <c r="G33" s="78"/>
-      <c r="H33" s="79" t="s">
+      <c r="G33" s="58"/>
+      <c r="H33" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="I33" s="73" t="s">
+      <c r="I33" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="J33" s="74">
-        <v>0</v>
-      </c>
-      <c r="K33" s="75" t="s">
-        <v>25</v>
-      </c>
-      <c r="L33" s="74">
-        <v>0</v>
-      </c>
-      <c r="M33" s="74">
+      <c r="J33" s="54">
+        <v>0</v>
+      </c>
+      <c r="K33" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="L33" s="54">
+        <v>0</v>
+      </c>
+      <c r="M33" s="54">
         <f t="shared" ref="M33" si="6">M34</f>
         <v>20000000</v>
       </c>
-      <c r="N33" s="47"/>
-      <c r="P33" s="77"/>
-    </row>
-    <row r="34" spans="1:16" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="71" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" s="59" t="s">
+      <c r="N33" s="27"/>
+      <c r="P33" s="57"/>
+    </row>
+    <row r="34" spans="1:16" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="60">
+      <c r="C34" s="40">
         <v>4</v>
       </c>
-      <c r="D34" s="61" t="s">
+      <c r="D34" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="E34" s="60">
+      <c r="E34" s="40">
         <v>1000000</v>
       </c>
-      <c r="F34" s="60">
+      <c r="F34" s="40">
         <f>ROUNDDOWN(C34*E34,-3)</f>
         <v>4000000</v>
       </c>
-      <c r="G34" s="78"/>
-      <c r="H34" s="71" t="s">
-        <v>25</v>
-      </c>
-      <c r="I34" s="59" t="s">
+      <c r="G34" s="58"/>
+      <c r="H34" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="I34" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="J34" s="65">
+      <c r="J34" s="45">
         <v>20</v>
       </c>
-      <c r="K34" s="66" t="s">
+      <c r="K34" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="L34" s="65">
+      <c r="L34" s="45">
         <v>1000000</v>
       </c>
-      <c r="M34" s="65">
+      <c r="M34" s="45">
         <f>ROUNDDOWN(J34*L34,-3)</f>
         <v>20000000</v>
       </c>
-      <c r="N34" s="47"/>
-      <c r="P34" s="77"/>
-    </row>
-    <row r="35" spans="1:16" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="54" t="s">
+      <c r="N34" s="27"/>
+      <c r="P34" s="57"/>
+    </row>
+    <row r="35" spans="1:16" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="55" t="s">
+      <c r="B35" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="C35" s="56">
-        <v>0</v>
-      </c>
-      <c r="D35" s="57" t="s">
-        <v>25</v>
-      </c>
-      <c r="E35" s="56">
-        <v>0</v>
-      </c>
-      <c r="F35" s="56">
+      <c r="C35" s="36">
+        <v>0</v>
+      </c>
+      <c r="D35" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" s="36">
+        <v>0</v>
+      </c>
+      <c r="F35" s="36">
         <f>F36</f>
         <v>66252000</v>
       </c>
-      <c r="G35" s="78"/>
-      <c r="H35" s="54" t="s">
+      <c r="G35" s="58"/>
+      <c r="H35" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="I35" s="55" t="s">
+      <c r="I35" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="J35" s="56">
-        <v>0</v>
-      </c>
-      <c r="K35" s="57" t="s">
-        <v>25</v>
-      </c>
-      <c r="L35" s="56">
-        <v>0</v>
-      </c>
-      <c r="M35" s="56">
+      <c r="J35" s="36">
+        <v>0</v>
+      </c>
+      <c r="K35" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="L35" s="36">
+        <v>0</v>
+      </c>
+      <c r="M35" s="36">
         <f>M36</f>
         <v>66252000</v>
       </c>
-      <c r="N35" s="47"/>
-      <c r="P35" s="77"/>
-    </row>
-    <row r="36" spans="1:16" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="58" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" s="72" t="s">
+      <c r="N35" s="27"/>
+      <c r="P35" s="57"/>
+    </row>
+    <row r="36" spans="1:16" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="C36" s="60">
+      <c r="C36" s="40">
         <v>12</v>
       </c>
-      <c r="D36" s="61" t="s">
+      <c r="D36" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="E36" s="60">
+      <c r="E36" s="40">
         <v>5521000</v>
       </c>
-      <c r="F36" s="60">
+      <c r="F36" s="40">
         <f>ROUNDDOWN(C36*E36,-3)</f>
         <v>66252000</v>
       </c>
-      <c r="G36" s="78"/>
-      <c r="H36" s="58" t="s">
-        <v>25</v>
-      </c>
-      <c r="I36" s="72" t="s">
+      <c r="G36" s="58"/>
+      <c r="H36" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="I36" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="J36" s="60">
+      <c r="J36" s="40">
         <v>12</v>
       </c>
-      <c r="K36" s="61" t="s">
+      <c r="K36" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="L36" s="60">
+      <c r="L36" s="40">
         <v>5521000</v>
       </c>
-      <c r="M36" s="60">
+      <c r="M36" s="40">
         <f>ROUNDDOWN(J36*L36,-3)</f>
         <v>66252000</v>
       </c>
-      <c r="N36" s="47"/>
-      <c r="P36" s="77"/>
-    </row>
-    <row r="37" spans="1:16" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="80" t="s">
+      <c r="N36" s="27"/>
+      <c r="P36" s="57"/>
+    </row>
+    <row r="37" spans="1:16" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="B37" s="81" t="s">
+      <c r="B37" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="C37" s="82"/>
-      <c r="D37" s="83"/>
-      <c r="E37" s="82"/>
-      <c r="F37" s="84">
+      <c r="C37" s="62"/>
+      <c r="D37" s="63"/>
+      <c r="E37" s="62"/>
+      <c r="F37" s="64">
         <f>F38</f>
         <v>139554000</v>
       </c>
-      <c r="G37" s="78"/>
-      <c r="H37" s="80" t="s">
+      <c r="G37" s="58"/>
+      <c r="H37" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="I37" s="81" t="s">
+      <c r="I37" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="J37" s="82"/>
-      <c r="K37" s="83"/>
-      <c r="L37" s="82"/>
-      <c r="M37" s="84">
+      <c r="J37" s="62"/>
+      <c r="K37" s="63"/>
+      <c r="L37" s="62"/>
+      <c r="M37" s="64">
         <f>M38+M50</f>
         <v>290869000</v>
       </c>
-      <c r="N37" s="47"/>
-      <c r="P37" s="77"/>
-    </row>
-    <row r="38" spans="1:16" s="30" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="51" t="s">
+      <c r="N37" s="27"/>
+      <c r="P37" s="57"/>
+    </row>
+    <row r="38" spans="1:16" s="10" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="B38" s="52" t="s">
+      <c r="B38" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="C38" s="53">
-        <v>0</v>
-      </c>
-      <c r="D38" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="E38" s="53">
-        <v>0</v>
-      </c>
-      <c r="F38" s="53">
+      <c r="C38" s="33">
+        <v>0</v>
+      </c>
+      <c r="D38" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E38" s="33">
+        <v>0</v>
+      </c>
+      <c r="F38" s="33">
         <f>F39+F48</f>
         <v>139554000</v>
       </c>
-      <c r="G38" s="78"/>
-      <c r="H38" s="51" t="s">
+      <c r="G38" s="58"/>
+      <c r="H38" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="I38" s="52" t="s">
+      <c r="I38" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="J38" s="53">
-        <v>0</v>
-      </c>
-      <c r="K38" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="L38" s="53">
-        <v>0</v>
-      </c>
-      <c r="M38" s="53">
+      <c r="J38" s="33">
+        <v>0</v>
+      </c>
+      <c r="K38" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="L38" s="33">
+        <v>0</v>
+      </c>
+      <c r="M38" s="33">
         <f>M39+M48+M44+M46</f>
         <v>232054000</v>
       </c>
-      <c r="N38" s="47"/>
-      <c r="P38" s="77"/>
-    </row>
-    <row r="39" spans="1:16" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="54" t="s">
+      <c r="N38" s="27"/>
+      <c r="P38" s="57"/>
+    </row>
+    <row r="39" spans="1:16" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="B39" s="55" t="s">
+      <c r="B39" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="C39" s="56">
-        <v>0</v>
-      </c>
-      <c r="D39" s="57" t="s">
-        <v>25</v>
-      </c>
-      <c r="E39" s="56">
-        <v>0</v>
-      </c>
-      <c r="F39" s="56">
+      <c r="C39" s="36">
+        <v>0</v>
+      </c>
+      <c r="D39" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E39" s="36">
+        <v>0</v>
+      </c>
+      <c r="F39" s="36">
         <f>SUM(F40:F43)</f>
         <v>23500000</v>
       </c>
-      <c r="G39" s="78"/>
-      <c r="H39" s="54" t="s">
+      <c r="G39" s="58"/>
+      <c r="H39" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="I39" s="55" t="s">
+      <c r="I39" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="J39" s="56">
-        <v>0</v>
-      </c>
-      <c r="K39" s="57" t="s">
-        <v>25</v>
-      </c>
-      <c r="L39" s="56">
-        <v>0</v>
-      </c>
-      <c r="M39" s="56">
+      <c r="J39" s="36">
+        <v>0</v>
+      </c>
+      <c r="K39" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="L39" s="36">
+        <v>0</v>
+      </c>
+      <c r="M39" s="36">
         <f>SUM(M40:M43)</f>
         <v>31000000</v>
       </c>
-      <c r="N39" s="47"/>
-      <c r="P39" s="77"/>
-    </row>
-    <row r="40" spans="1:16" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="58" t="s">
-        <v>25</v>
-      </c>
-      <c r="B40" s="59" t="s">
+      <c r="N39" s="27"/>
+      <c r="P39" s="57"/>
+    </row>
+    <row r="40" spans="1:16" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="C40" s="60">
+      <c r="C40" s="40">
         <v>100</v>
       </c>
-      <c r="D40" s="61" t="s">
+      <c r="D40" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="E40" s="60">
+      <c r="E40" s="40">
         <v>75000</v>
       </c>
-      <c r="F40" s="60">
+      <c r="F40" s="40">
         <f t="shared" ref="F40:F43" si="7">ROUNDDOWN(C40*E40,-3)</f>
         <v>7500000</v>
       </c>
-      <c r="G40" s="78"/>
-      <c r="H40" s="58" t="s">
-        <v>25</v>
-      </c>
-      <c r="I40" s="64" t="s">
+      <c r="G40" s="58"/>
+      <c r="H40" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="I40" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="J40" s="65">
+      <c r="J40" s="45">
         <v>200</v>
       </c>
-      <c r="K40" s="66" t="s">
+      <c r="K40" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="L40" s="65">
+      <c r="L40" s="45">
         <v>75000</v>
       </c>
-      <c r="M40" s="65">
+      <c r="M40" s="45">
         <f t="shared" ref="M40:M43" si="8">ROUNDDOWN(J40*L40,-3)</f>
         <v>15000000</v>
       </c>
-      <c r="N40" s="47"/>
-      <c r="P40" s="77"/>
-    </row>
-    <row r="41" spans="1:16" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="58"/>
-      <c r="B41" s="85" t="s">
+      <c r="N40" s="27"/>
+      <c r="P40" s="57"/>
+    </row>
+    <row r="41" spans="1:16" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="38"/>
+      <c r="B41" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="C41" s="68">
+      <c r="C41" s="48">
         <v>4</v>
       </c>
-      <c r="D41" s="63" t="s">
+      <c r="D41" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="E41" s="68">
+      <c r="E41" s="48">
         <v>1500000</v>
       </c>
-      <c r="F41" s="68">
+      <c r="F41" s="48">
         <f t="shared" si="7"/>
         <v>6000000</v>
       </c>
-      <c r="G41" s="78"/>
-      <c r="H41" s="58"/>
-      <c r="I41" s="85" t="s">
+      <c r="G41" s="58"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="J41" s="68">
+      <c r="J41" s="48">
         <v>4</v>
       </c>
-      <c r="K41" s="63" t="s">
+      <c r="K41" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="L41" s="68">
+      <c r="L41" s="48">
         <v>1500000</v>
       </c>
-      <c r="M41" s="68">
+      <c r="M41" s="48">
         <f t="shared" si="8"/>
         <v>6000000</v>
       </c>
-      <c r="N41" s="47"/>
-      <c r="P41" s="77"/>
-    </row>
-    <row r="42" spans="1:16" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="58" t="s">
-        <v>25</v>
-      </c>
-      <c r="B42" s="67" t="s">
+      <c r="N41" s="27"/>
+      <c r="P41" s="57"/>
+    </row>
+    <row r="42" spans="1:16" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="B42" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="C42" s="68">
+      <c r="C42" s="48">
         <v>4</v>
       </c>
-      <c r="D42" s="63" t="s">
+      <c r="D42" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="E42" s="68">
+      <c r="E42" s="48">
         <v>1500000</v>
       </c>
-      <c r="F42" s="68">
+      <c r="F42" s="48">
         <f t="shared" si="7"/>
         <v>6000000</v>
       </c>
-      <c r="G42" s="78"/>
-      <c r="H42" s="58" t="s">
-        <v>25</v>
-      </c>
-      <c r="I42" s="67" t="s">
+      <c r="G42" s="58"/>
+      <c r="H42" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="I42" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="J42" s="68">
+      <c r="J42" s="48">
         <v>4</v>
       </c>
-      <c r="K42" s="63" t="s">
+      <c r="K42" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="L42" s="68">
+      <c r="L42" s="48">
         <v>1500000</v>
       </c>
-      <c r="M42" s="68">
+      <c r="M42" s="48">
         <f t="shared" si="8"/>
         <v>6000000</v>
       </c>
-      <c r="N42" s="47"/>
-      <c r="P42" s="77"/>
-    </row>
-    <row r="43" spans="1:16" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="58" t="s">
-        <v>25</v>
-      </c>
-      <c r="B43" s="67" t="s">
+      <c r="N42" s="27"/>
+      <c r="P42" s="57"/>
+    </row>
+    <row r="43" spans="1:16" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="B43" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="C43" s="68">
+      <c r="C43" s="48">
         <v>4</v>
       </c>
-      <c r="D43" s="63" t="s">
+      <c r="D43" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="E43" s="68">
+      <c r="E43" s="48">
         <v>1000000</v>
       </c>
-      <c r="F43" s="68">
+      <c r="F43" s="48">
         <f t="shared" si="7"/>
         <v>4000000</v>
       </c>
-      <c r="G43" s="78"/>
-      <c r="H43" s="58" t="s">
-        <v>25</v>
-      </c>
-      <c r="I43" s="67" t="s">
+      <c r="G43" s="58"/>
+      <c r="H43" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="I43" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="J43" s="68">
+      <c r="J43" s="48">
         <v>4</v>
       </c>
-      <c r="K43" s="63" t="s">
+      <c r="K43" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="L43" s="68">
+      <c r="L43" s="48">
         <v>1000000</v>
       </c>
-      <c r="M43" s="68">
+      <c r="M43" s="48">
         <f t="shared" si="8"/>
         <v>4000000</v>
       </c>
-      <c r="N43" s="47"/>
-      <c r="P43" s="77"/>
-    </row>
-    <row r="44" spans="1:16" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="58"/>
-      <c r="B44" s="67"/>
-      <c r="C44" s="68"/>
-      <c r="D44" s="63"/>
-      <c r="E44" s="68"/>
-      <c r="F44" s="68"/>
-      <c r="G44" s="78"/>
-      <c r="H44" s="86">
+      <c r="N43" s="27"/>
+      <c r="P43" s="57"/>
+    </row>
+    <row r="44" spans="1:16" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="38"/>
+      <c r="B44" s="47"/>
+      <c r="C44" s="48"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="48"/>
+      <c r="F44" s="48"/>
+      <c r="G44" s="58"/>
+      <c r="H44" s="66">
         <v>521219</v>
       </c>
-      <c r="I44" s="87" t="s">
+      <c r="I44" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="J44" s="69">
-        <v>0</v>
-      </c>
-      <c r="K44" s="70"/>
-      <c r="L44" s="69">
-        <v>0</v>
-      </c>
-      <c r="M44" s="69">
+      <c r="J44" s="49">
+        <v>0</v>
+      </c>
+      <c r="K44" s="50"/>
+      <c r="L44" s="49">
+        <v>0</v>
+      </c>
+      <c r="M44" s="49">
         <f>M45</f>
         <v>80000000</v>
       </c>
-      <c r="N44" s="47"/>
-      <c r="P44" s="77"/>
-    </row>
-    <row r="45" spans="1:16" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="58"/>
-      <c r="B45" s="67"/>
-      <c r="C45" s="68"/>
-      <c r="D45" s="63"/>
-      <c r="E45" s="68"/>
-      <c r="F45" s="68"/>
-      <c r="G45" s="78"/>
-      <c r="H45" s="88"/>
-      <c r="I45" s="76" t="s">
+      <c r="N44" s="27"/>
+      <c r="P44" s="57"/>
+    </row>
+    <row r="45" spans="1:16" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="38"/>
+      <c r="B45" s="47"/>
+      <c r="C45" s="48"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="48"/>
+      <c r="F45" s="48"/>
+      <c r="G45" s="58"/>
+      <c r="H45" s="68"/>
+      <c r="I45" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="J45" s="69">
+      <c r="J45" s="49">
         <v>1</v>
       </c>
-      <c r="K45" s="70" t="s">
+      <c r="K45" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="L45" s="69">
+      <c r="L45" s="49">
         <v>80000000</v>
       </c>
-      <c r="M45" s="69">
+      <c r="M45" s="49">
         <f>J45*L45</f>
         <v>80000000</v>
       </c>
-      <c r="N45" s="47"/>
-      <c r="P45" s="77"/>
-    </row>
-    <row r="46" spans="1:16" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="58"/>
-      <c r="B46" s="67"/>
-      <c r="C46" s="68"/>
-      <c r="D46" s="63"/>
-      <c r="E46" s="68"/>
-      <c r="F46" s="68"/>
-      <c r="G46" s="78"/>
-      <c r="H46" s="89">
+      <c r="N45" s="27"/>
+      <c r="P45" s="57"/>
+    </row>
+    <row r="46" spans="1:16" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="38"/>
+      <c r="B46" s="47"/>
+      <c r="C46" s="48"/>
+      <c r="D46" s="43"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="48"/>
+      <c r="G46" s="58"/>
+      <c r="H46" s="69">
         <v>522151</v>
       </c>
-      <c r="I46" s="90" t="s">
+      <c r="I46" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="J46" s="69">
-        <v>0</v>
-      </c>
-      <c r="K46" s="70"/>
-      <c r="L46" s="69">
-        <v>0</v>
-      </c>
-      <c r="M46" s="69">
+      <c r="J46" s="49">
+        <v>0</v>
+      </c>
+      <c r="K46" s="50"/>
+      <c r="L46" s="49">
+        <v>0</v>
+      </c>
+      <c r="M46" s="49">
         <f>M47</f>
         <v>5000000</v>
       </c>
-      <c r="N46" s="47"/>
-      <c r="P46" s="77"/>
-    </row>
-    <row r="47" spans="1:16" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="58"/>
-      <c r="B47" s="67"/>
-      <c r="C47" s="68"/>
-      <c r="D47" s="63"/>
-      <c r="E47" s="68"/>
-      <c r="F47" s="68"/>
-      <c r="G47" s="78"/>
-      <c r="H47" s="88"/>
-      <c r="I47" s="76" t="s">
+      <c r="N46" s="27"/>
+      <c r="P46" s="57"/>
+    </row>
+    <row r="47" spans="1:16" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="38"/>
+      <c r="B47" s="47"/>
+      <c r="C47" s="48"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="48"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="58"/>
+      <c r="H47" s="68"/>
+      <c r="I47" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="J47" s="69">
+      <c r="J47" s="49">
         <v>5</v>
       </c>
-      <c r="K47" s="70" t="s">
+      <c r="K47" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="L47" s="69">
+      <c r="L47" s="49">
         <v>1000000</v>
       </c>
-      <c r="M47" s="69">
+      <c r="M47" s="49">
         <f>J47*L47</f>
         <v>5000000</v>
       </c>
-      <c r="N47" s="47"/>
-      <c r="P47" s="77"/>
-    </row>
-    <row r="48" spans="1:16" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="54" t="s">
+      <c r="N47" s="27"/>
+      <c r="P47" s="57"/>
+    </row>
+    <row r="48" spans="1:16" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="B48" s="55" t="s">
+      <c r="B48" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="C48" s="56">
-        <v>0</v>
-      </c>
-      <c r="D48" s="57" t="s">
-        <v>25</v>
-      </c>
-      <c r="E48" s="56">
-        <v>0</v>
-      </c>
-      <c r="F48" s="56">
+      <c r="C48" s="36">
+        <v>0</v>
+      </c>
+      <c r="D48" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E48" s="36">
+        <v>0</v>
+      </c>
+      <c r="F48" s="36">
         <f>F49</f>
         <v>116054000</v>
       </c>
-      <c r="G48" s="78"/>
-      <c r="H48" s="54" t="s">
+      <c r="G48" s="58"/>
+      <c r="H48" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="I48" s="55" t="s">
+      <c r="I48" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="J48" s="56">
-        <v>0</v>
-      </c>
-      <c r="K48" s="57" t="s">
-        <v>25</v>
-      </c>
-      <c r="L48" s="56">
-        <v>0</v>
-      </c>
-      <c r="M48" s="56">
+      <c r="J48" s="36">
+        <v>0</v>
+      </c>
+      <c r="K48" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="L48" s="36">
+        <v>0</v>
+      </c>
+      <c r="M48" s="36">
         <f>M49</f>
         <v>116054000</v>
       </c>
-      <c r="N48" s="47"/>
-      <c r="P48" s="77"/>
-    </row>
-    <row r="49" spans="1:16" s="30" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="58" t="s">
-        <v>25</v>
-      </c>
-      <c r="B49" s="72" t="s">
+      <c r="N48" s="27"/>
+      <c r="P48" s="57"/>
+    </row>
+    <row r="49" spans="1:16" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="B49" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="C49" s="60">
+      <c r="C49" s="40">
         <v>21</v>
       </c>
-      <c r="D49" s="61" t="s">
+      <c r="D49" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="E49" s="91">
+      <c r="E49" s="71">
         <v>5526381</v>
       </c>
-      <c r="F49" s="60">
+      <c r="F49" s="40">
         <f>ROUNDDOWN(C49*E49,-3)</f>
         <v>116054000</v>
       </c>
-      <c r="G49" s="78"/>
-      <c r="H49" s="58" t="s">
-        <v>25</v>
-      </c>
-      <c r="I49" s="72" t="s">
+      <c r="G49" s="58"/>
+      <c r="H49" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="I49" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="J49" s="60">
+      <c r="J49" s="40">
         <v>21</v>
       </c>
-      <c r="K49" s="61" t="s">
+      <c r="K49" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="L49" s="91">
+      <c r="L49" s="71">
         <v>5526381</v>
       </c>
-      <c r="M49" s="60">
+      <c r="M49" s="40">
         <f>ROUNDDOWN(J49*L49,-3)</f>
         <v>116054000</v>
       </c>
-      <c r="N49" s="47"/>
-      <c r="P49" s="77"/>
-    </row>
-    <row r="50" spans="1:16" s="30" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="92"/>
-      <c r="B50" s="93"/>
-      <c r="C50" s="94"/>
-      <c r="D50" s="95"/>
-      <c r="E50" s="96"/>
-      <c r="F50" s="94"/>
-      <c r="G50" s="78"/>
-      <c r="H50" s="97"/>
-      <c r="I50" s="98" t="s">
+      <c r="N49" s="27"/>
+      <c r="P49" s="57"/>
+    </row>
+    <row r="50" spans="1:16" s="10" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="72"/>
+      <c r="B50" s="73"/>
+      <c r="C50" s="74"/>
+      <c r="D50" s="75"/>
+      <c r="E50" s="76"/>
+      <c r="F50" s="74"/>
+      <c r="G50" s="58"/>
+      <c r="H50" s="77"/>
+      <c r="I50" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="J50" s="99">
-        <v>0</v>
-      </c>
-      <c r="K50" s="97" t="s">
-        <v>25</v>
-      </c>
-      <c r="L50" s="99">
-        <v>0</v>
-      </c>
-      <c r="M50" s="99">
+      <c r="J50" s="79">
+        <v>0</v>
+      </c>
+      <c r="K50" s="77" t="s">
+        <v>25</v>
+      </c>
+      <c r="L50" s="79">
+        <v>0</v>
+      </c>
+      <c r="M50" s="79">
         <f>M51+M53</f>
         <v>58815000</v>
       </c>
-      <c r="N50" s="47"/>
-      <c r="P50" s="77"/>
-    </row>
-    <row r="51" spans="1:16" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="92"/>
-      <c r="B51" s="93"/>
-      <c r="C51" s="94"/>
-      <c r="D51" s="95"/>
-      <c r="E51" s="96"/>
-      <c r="F51" s="94"/>
-      <c r="G51" s="78"/>
-      <c r="H51" s="100">
+      <c r="N50" s="27"/>
+      <c r="P50" s="57"/>
+    </row>
+    <row r="51" spans="1:16" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="72"/>
+      <c r="B51" s="73"/>
+      <c r="C51" s="74"/>
+      <c r="D51" s="75"/>
+      <c r="E51" s="76"/>
+      <c r="F51" s="74"/>
+      <c r="G51" s="58"/>
+      <c r="H51" s="80">
         <v>521211</v>
       </c>
-      <c r="I51" s="101" t="s">
+      <c r="I51" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="J51" s="102">
-        <v>0</v>
-      </c>
-      <c r="K51" s="100"/>
-      <c r="L51" s="102">
-        <v>0</v>
-      </c>
-      <c r="M51" s="102">
+      <c r="J51" s="82">
+        <v>0</v>
+      </c>
+      <c r="K51" s="80"/>
+      <c r="L51" s="82">
+        <v>0</v>
+      </c>
+      <c r="M51" s="82">
         <f>M52</f>
         <v>7500000</v>
       </c>
-      <c r="N51" s="47"/>
-      <c r="P51" s="77"/>
-    </row>
-    <row r="52" spans="1:16" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="92"/>
-      <c r="B52" s="93"/>
-      <c r="C52" s="94"/>
-      <c r="D52" s="95"/>
-      <c r="E52" s="96"/>
-      <c r="F52" s="94"/>
-      <c r="G52" s="78"/>
-      <c r="H52" s="100"/>
-      <c r="I52" s="64" t="s">
+      <c r="N51" s="27"/>
+      <c r="P51" s="57"/>
+    </row>
+    <row r="52" spans="1:16" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="72"/>
+      <c r="B52" s="73"/>
+      <c r="C52" s="74"/>
+      <c r="D52" s="75"/>
+      <c r="E52" s="76"/>
+      <c r="F52" s="74"/>
+      <c r="G52" s="58"/>
+      <c r="H52" s="80"/>
+      <c r="I52" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="J52" s="103">
+      <c r="J52" s="83">
         <v>100</v>
       </c>
-      <c r="K52" s="104" t="s">
+      <c r="K52" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="L52" s="103">
+      <c r="L52" s="83">
         <v>75000</v>
       </c>
-      <c r="M52" s="103">
+      <c r="M52" s="83">
         <f>J52*L52</f>
         <v>7500000</v>
       </c>
-      <c r="N52" s="47"/>
-      <c r="P52" s="77"/>
-    </row>
-    <row r="53" spans="1:16" s="30" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="92"/>
-      <c r="B53" s="93"/>
-      <c r="C53" s="94"/>
-      <c r="D53" s="95"/>
-      <c r="E53" s="96"/>
-      <c r="F53" s="94"/>
-      <c r="G53" s="78"/>
-      <c r="H53" s="105" t="s">
+      <c r="N52" s="27"/>
+      <c r="P52" s="57"/>
+    </row>
+    <row r="53" spans="1:16" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="72"/>
+      <c r="B53" s="73"/>
+      <c r="C53" s="74"/>
+      <c r="D53" s="75"/>
+      <c r="E53" s="76"/>
+      <c r="F53" s="74"/>
+      <c r="G53" s="58"/>
+      <c r="H53" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="I53" s="106" t="s">
+      <c r="I53" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="J53" s="107">
-        <v>0</v>
-      </c>
-      <c r="K53" s="86" t="s">
-        <v>25</v>
-      </c>
-      <c r="L53" s="107">
-        <v>0</v>
-      </c>
-      <c r="M53" s="107">
+      <c r="J53" s="87">
+        <v>0</v>
+      </c>
+      <c r="K53" s="66" t="s">
+        <v>25</v>
+      </c>
+      <c r="L53" s="87">
+        <v>0</v>
+      </c>
+      <c r="M53" s="87">
         <f>M54</f>
         <v>51315000</v>
       </c>
-      <c r="N53" s="47"/>
-      <c r="P53" s="77"/>
-    </row>
-    <row r="54" spans="1:16" s="30" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="92"/>
-      <c r="B54" s="93"/>
-      <c r="C54" s="94"/>
-      <c r="D54" s="95"/>
-      <c r="E54" s="96"/>
-      <c r="F54" s="94"/>
-      <c r="G54" s="78"/>
-      <c r="H54" s="88" t="s">
-        <v>25</v>
-      </c>
-      <c r="I54" s="76" t="s">
+      <c r="N53" s="27"/>
+      <c r="P53" s="57"/>
+    </row>
+    <row r="54" spans="1:16" s="10" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="72"/>
+      <c r="B54" s="73"/>
+      <c r="C54" s="74"/>
+      <c r="D54" s="75"/>
+      <c r="E54" s="76"/>
+      <c r="F54" s="74"/>
+      <c r="G54" s="58"/>
+      <c r="H54" s="68" t="s">
+        <v>25</v>
+      </c>
+      <c r="I54" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="J54" s="108">
+      <c r="J54" s="88">
         <v>6</v>
       </c>
-      <c r="K54" s="108" t="s">
+      <c r="K54" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="L54" s="108">
+      <c r="L54" s="88">
         <v>8552527.777777778</v>
       </c>
-      <c r="M54" s="109">
+      <c r="M54" s="89">
         <f>ROUNDDOWN(J54*L54,-3)</f>
         <v>51315000</v>
       </c>
-      <c r="N54" s="47"/>
-      <c r="P54" s="77"/>
-    </row>
-    <row r="55" spans="1:16" s="30" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="92"/>
-      <c r="B55" s="93"/>
-      <c r="C55" s="94"/>
-      <c r="D55" s="95"/>
-      <c r="E55" s="96"/>
-      <c r="F55" s="94"/>
-      <c r="G55" s="78"/>
-      <c r="H55" s="110"/>
-      <c r="I55" s="111"/>
-      <c r="J55" s="112"/>
-      <c r="K55" s="112"/>
-      <c r="L55" s="112"/>
-      <c r="M55" s="113"/>
-      <c r="N55" s="47"/>
-      <c r="P55" s="77"/>
-    </row>
-    <row r="56" spans="1:16" s="114" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="G56" s="115"/>
-      <c r="I56" s="116" t="s">
+      <c r="N54" s="27"/>
+      <c r="P54" s="57"/>
+    </row>
+    <row r="55" spans="1:16" s="10" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="72"/>
+      <c r="B55" s="73"/>
+      <c r="C55" s="74"/>
+      <c r="D55" s="75"/>
+      <c r="E55" s="76"/>
+      <c r="F55" s="74"/>
+      <c r="G55" s="58"/>
+      <c r="H55" s="90"/>
+      <c r="I55" s="91"/>
+      <c r="J55" s="92"/>
+      <c r="K55" s="92"/>
+      <c r="L55" s="92"/>
+      <c r="M55" s="93"/>
+      <c r="N55" s="27"/>
+      <c r="P55" s="57"/>
+    </row>
+    <row r="56" spans="1:16" s="94" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="G56" s="95"/>
+      <c r="I56" s="96" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:16" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B57" s="116" t="s">
+    <row r="57" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B57" s="96" t="s">
         <v>56</v>
       </c>
-      <c r="C57" s="114"/>
-      <c r="D57" s="114"/>
-      <c r="E57" s="114"/>
-      <c r="F57" s="114"/>
-      <c r="G57" s="115"/>
-      <c r="H57" s="114"/>
-      <c r="I57" s="116" t="s">
+      <c r="I57" s="96" t="s">
         <v>57</v>
       </c>
-      <c r="J57" s="114"/>
-      <c r="K57" s="114"/>
-      <c r="L57" s="114"/>
-      <c r="M57" s="114"/>
-    </row>
-    <row r="58" spans="1:16" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B58" s="116" t="s">
+    </row>
+    <row r="58" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B58" s="96" t="s">
         <v>58</v>
       </c>
-      <c r="C58" s="114"/>
-      <c r="D58" s="114"/>
-      <c r="E58" s="114"/>
-      <c r="F58" s="114"/>
-      <c r="G58" s="115"/>
-      <c r="H58" s="114"/>
-      <c r="I58" s="116" t="s">
+      <c r="I58" s="96" t="s">
         <v>59</v>
       </c>
-      <c r="J58" s="114"/>
-      <c r="K58" s="114"/>
-      <c r="L58" s="114"/>
-      <c r="M58" s="114"/>
-      <c r="N58" s="117"/>
-    </row>
-    <row r="59" spans="1:16" s="114" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="2"/>
-      <c r="B59" s="116"/>
-      <c r="G59" s="115"/>
-      <c r="I59" s="116"/>
-      <c r="N59" s="117"/>
-      <c r="O59" s="2"/>
-    </row>
-    <row r="60" spans="1:16" s="114" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="2"/>
-      <c r="B60" s="116"/>
-      <c r="G60" s="115"/>
-      <c r="I60" s="116"/>
-      <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
-    </row>
-    <row r="61" spans="1:16" s="114" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="2"/>
-      <c r="B61" s="116"/>
-      <c r="G61" s="115"/>
-      <c r="I61" s="116"/>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
-    </row>
-    <row r="62" spans="1:16" s="114" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="2"/>
-      <c r="B62" s="116"/>
-      <c r="G62" s="115"/>
-      <c r="I62" s="116"/>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
-    </row>
-    <row r="63" spans="1:16" s="114" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="2"/>
-      <c r="B63" s="116" t="s">
+      <c r="N58" s="97"/>
+    </row>
+    <row r="59" spans="1:16" s="94" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A59" s="1"/>
+      <c r="B59" s="96"/>
+      <c r="G59" s="95"/>
+      <c r="I59" s="96"/>
+      <c r="N59" s="97"/>
+      <c r="O59" s="1"/>
+    </row>
+    <row r="60" spans="1:16" s="94" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A60" s="1"/>
+      <c r="B60" s="96"/>
+      <c r="G60" s="95"/>
+      <c r="I60" s="96"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+    </row>
+    <row r="61" spans="1:16" s="94" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A61" s="1"/>
+      <c r="B61" s="96"/>
+      <c r="G61" s="95"/>
+      <c r="I61" s="96"/>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
+    </row>
+    <row r="62" spans="1:16" s="94" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A62" s="1"/>
+      <c r="B62" s="96"/>
+      <c r="G62" s="95"/>
+      <c r="I62" s="96"/>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
+    </row>
+    <row r="63" spans="1:16" s="94" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A63" s="1"/>
+      <c r="B63" s="96" t="s">
         <v>60</v>
       </c>
-      <c r="G63" s="115"/>
-      <c r="I63" s="116" t="s">
+      <c r="G63" s="95"/>
+      <c r="I63" s="96" t="s">
         <v>61</v>
       </c>
-      <c r="N63" s="2"/>
-      <c r="O63" s="2"/>
-    </row>
-    <row r="64" spans="1:16" s="114" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="2"/>
-      <c r="B64" s="116" t="s">
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
+    </row>
+    <row r="64" spans="1:16" s="94" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A64" s="1"/>
+      <c r="B64" s="96" t="s">
         <v>62</v>
       </c>
-      <c r="G64" s="115"/>
-      <c r="I64" s="116" t="s">
+      <c r="G64" s="95"/>
+      <c r="I64" s="96" t="s">
         <v>63</v>
       </c>
-      <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A3:M3"/>
+    <mergeCell ref="A4:F5"/>
+    <mergeCell ref="H4:M5"/>
     <mergeCell ref="M6:M8"/>
     <mergeCell ref="F6:F8"/>
     <mergeCell ref="H6:H8"/>
@@ -3215,18 +3217,8 @@
     <mergeCell ref="J6:J8"/>
     <mergeCell ref="K6:K8"/>
     <mergeCell ref="L6:L8"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="A3:M3"/>
-    <mergeCell ref="A4:F5"/>
-    <mergeCell ref="H4:M5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:E8"/>
   </mergeCells>
   <pageMargins left="3.937007874015748E-2" right="7.874015748031496E-2" top="0.11811023622047245" bottom="0.11811023622047245" header="0.11811023622047245" footer="0.15748031496062992"/>
-  <pageSetup paperSize="9" scale="55" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="54" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>